--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B8128C-7222-4E5A-9BB7-7C6109A18067}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F7256-6731-4F33-AD06-7E4E1E45832F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4956" yWindow="4956" windowWidth="21348" windowHeight="15672" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24012" yWindow="5664" windowWidth="21444" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -1054,8 +1054,8 @@
       </c>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A18" si="2">ROW()-1</f>
+      <c r="A3" s="5">
+        <f t="shared" ref="A3:A19" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1105,7 +1105,7 @@
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="1">
+      <c r="A4" s="5">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
@@ -1207,7 +1207,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1">
+      <c r="A6" s="5">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="1">
+      <c r="A7" s="5">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -1307,7 +1307,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="1">
+      <c r="A8" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -1356,7 +1356,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="1">
+      <c r="A9" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="1">
+      <c r="A10" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -1458,7 +1458,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1">
+      <c r="A11" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -1510,7 +1510,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="5">
-        <f t="shared" ref="A12:A19" si="5">ROW()-1</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1545,7 +1545,7 @@
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12" si="6">IF(G12="無"," NOT NULL","")</f>
+        <f t="shared" ref="M12" si="5">IF(G12="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N12" t="str">
@@ -1558,8 +1558,8 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1">
-        <f t="shared" si="5"/>
+      <c r="A13" s="5">
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1582,7 +1582,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J19" si="7">",   "&amp;C13</f>
+        <f t="shared" ref="J13:J19" si="6">",   "&amp;C13</f>
         <v>,   no</v>
       </c>
       <c r="K13" t="str">
@@ -1598,16 +1598,16 @@
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N19" si="8">IF(H13=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N13:N19" si="7">IF(H13=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P13" t="str">
-        <f t="shared" ref="P13" si="9">IF(I13="○"," IDENTITY","")</f>
+        <f t="shared" ref="P13" si="8">IF(I13="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="1">
+      <c r="A14" s="5">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -1631,7 +1631,7 @@
       </c>
       <c r="H14" s="1"/>
       <c r="J14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   date</v>
       </c>
       <c r="K14" t="str">
@@ -1643,11 +1643,11 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M19" si="10">IF(G14="無"," NOT NULL","")</f>
+        <f t="shared" ref="M14:M19" si="9">IF(G14="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P14" t="str">
@@ -1656,8 +1656,8 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <f t="shared" si="5"/>
+      <c r="A15" s="5">
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H15" s="1"/>
       <c r="J15" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   op</v>
       </c>
       <c r="K15" t="str">
@@ -1692,11 +1692,11 @@
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N15" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P15" t="str">
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="1">
+      <c r="A16" s="5">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="H16" s="1"/>
       <c r="J16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   hp</v>
       </c>
       <c r="K16" t="str">
@@ -1741,11 +1741,11 @@
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P16" t="str">
@@ -1754,8 +1754,8 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="1">
-        <f t="shared" si="5"/>
+      <c r="A17" s="5">
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="H17" s="1"/>
       <c r="J17" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   lp</v>
       </c>
       <c r="K17" t="str">
@@ -1790,11 +1790,11 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P17" t="str">
@@ -1803,7 +1803,7 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="1">
+      <c r="A18" s="5">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="H18" s="1"/>
       <c r="J18" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   cp</v>
       </c>
       <c r="K18" t="str">
@@ -1839,11 +1839,11 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N18" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P18" t="str">
@@ -1852,8 +1852,8 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="1">
-        <f t="shared" si="5"/>
+      <c r="A19" s="5">
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="H19" s="1"/>
       <c r="J19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>,   volume</v>
       </c>
       <c r="K19" t="str">
@@ -1888,11 +1888,11 @@
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N19" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P19" t="str">

--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213F7256-6731-4F33-AD06-7E4E1E45832F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B8953-77CF-4C7B-9D86-DA5320F79644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24012" yWindow="5664" windowWidth="21444" windowHeight="15288" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16320" yWindow="5970" windowWidth="22080" windowHeight="13190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -953,11 +953,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1919,6 +1919,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2B8953-77CF-4C7B-9D86-DA5320F79644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A141C-CAE1-4042-AEA0-21090B3FD982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="5970" windowWidth="22080" windowHeight="13190" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1010" yWindow="2190" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -496,16 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日時型</t>
-    <rPh sb="0" eb="2">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -522,6 +512,9 @@
       <t>メイガラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時型</t>
   </si>
 </sst>
 </file>
@@ -887,12 +880,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="14.8984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -940,12 +933,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44321</v>
+        <v>44333</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -953,23 +947,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1267,7 +1261,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -1317,7 +1311,7 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E8" s="1">
@@ -1367,7 +1361,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1417,7 +1411,7 @@
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="1">
@@ -1466,9 +1460,9 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="1">
@@ -1514,10 +1508,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>49</v>
@@ -1617,7 +1611,7 @@
       <c r="C14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1914,7 +1908,7 @@
   <autoFilter ref="A1:I19" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D6 D10:D19" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>
@@ -1937,9 +1931,9 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.8984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.9140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A141C-CAE1-4042-AEA0-21090B3FD982}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D247C02-31F5-4D88-AAFC-7F5843453960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1010" yWindow="2190" windowWidth="21020" windowHeight="11030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23630" yWindow="4780" windowWidth="13490" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="3">
-        <v>44315</v>
+        <v>44321</v>
       </c>
     </row>
     <row r="6" spans="1:2">

--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D247C02-31F5-4D88-AAFC-7F5843453960}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D472EBF-D607-4B29-92C5-266DAB0B855D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23630" yWindow="4780" windowWidth="13490" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5180" yWindow="6650" windowWidth="14680" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -515,6 +515,57 @@
   </si>
   <si>
     <t>日時型</t>
+  </si>
+  <si>
+    <t>ＭＣＡＤライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＣＡＤシグナル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＭＣＡＤヒストグラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力指数</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力指数１３ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勢力指数２ＥＭＡ</t>
+    <rPh sb="0" eb="4">
+      <t>セイリョクシスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mcadl</t>
+  </si>
+  <si>
+    <t>mcads</t>
+  </si>
+  <si>
+    <t>mcadh</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>pi2ema</t>
+  </si>
+  <si>
+    <t>pi13ema</t>
   </si>
 </sst>
 </file>
@@ -590,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -598,6 +649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -933,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44333</v>
+        <v>44334</v>
       </c>
     </row>
   </sheetData>
@@ -945,7 +997,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -956,14 +1008,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.4140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.9140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.58203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.9140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1049,7 +1106,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A19" si="2">ROW()-1</f>
+        <f t="shared" ref="A3:A25" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1094,7 +1151,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P20" si="3">IF(I3="○"," IDENTITY","")</f>
+        <f t="shared" ref="P3:P26" si="3">IF(I3="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
@@ -1576,7 +1633,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J19" si="6">",   "&amp;C13</f>
+        <f t="shared" ref="J13:J24" si="6">",   "&amp;C13</f>
         <v>,   no</v>
       </c>
       <c r="K13" t="str">
@@ -1592,7 +1649,7 @@
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N19" si="7">IF(H13=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N13:N24" si="7">IF(H13=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P13" t="str">
@@ -1637,7 +1694,7 @@
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ref="M14:M19" si="9">IF(G14="無"," NOT NULL","")</f>
+        <f t="shared" ref="M14:M24" si="9">IF(G14="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N14" t="str">
@@ -1895,11 +1952,305 @@
       </c>
     </row>
     <row r="20" spans="1:16">
+      <c r="A20" s="5">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="5"/>
       <c r="J20" t="str">
+        <f t="shared" ref="J20:J21" si="10">",   "&amp;C20</f>
+        <v>,   mcadl</v>
+      </c>
+      <c r="K20" t="str">
+        <f>" "&amp;VLOOKUP(D20,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L20" t="str">
+        <f>IF(VLOOKUP(D20,型!B:D,3,FALSE)="有","("&amp;E20&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" ref="M20:M21" si="11">IF(G20="無"," NOT NULL","")</f>
+        <v/>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" ref="N20:N21" si="12">IF(H20=1," PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" ref="P20:P21" si="13">IF(I20="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="5"/>
+      <c r="J21" t="str">
+        <f t="shared" si="10"/>
+        <v>,   mcads</v>
+      </c>
+      <c r="K21" t="str">
+        <f>" "&amp;VLOOKUP(D21,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L21" t="str">
+        <f>IF(VLOOKUP(D21,型!B:D,3,FALSE)="有","("&amp;E21&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="5">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5"/>
+      <c r="J22" t="str">
+        <f t="shared" si="6"/>
+        <v>,   mcadh</v>
+      </c>
+      <c r="K22" t="str">
+        <f>" "&amp;VLOOKUP(D22,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L22" t="str">
+        <f>IF(VLOOKUP(D22,型!B:D,3,FALSE)="有","("&amp;E22&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="5">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="5"/>
+      <c r="J23" t="str">
+        <f t="shared" ref="J23" si="14">",   "&amp;C23</f>
+        <v>,   pi</v>
+      </c>
+      <c r="K23" t="str">
+        <f>" "&amp;VLOOKUP(D23,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L23" t="str">
+        <f>IF(VLOOKUP(D23,型!B:D,3,FALSE)="有","("&amp;E23&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23" si="15">IF(G23="無"," NOT NULL","")</f>
+        <v/>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" ref="N23" si="16">IF(H23=1," PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" ref="P23" si="17">IF(I23="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="5">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="J24" t="str">
+        <f t="shared" si="6"/>
+        <v>,   pi2ema</v>
+      </c>
+      <c r="K24" t="str">
+        <f>" "&amp;VLOOKUP(D24,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L24" t="str">
+        <f>IF(VLOOKUP(D24,型!B:D,3,FALSE)="有","("&amp;E24&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="5">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="5"/>
+      <c r="J25" t="str">
+        <f t="shared" ref="J25" si="18">",   "&amp;C25</f>
+        <v>,   pi13ema</v>
+      </c>
+      <c r="K25" t="str">
+        <f>" "&amp;VLOOKUP(D25,型!B:C,2,FALSE)</f>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
+      </c>
+      <c r="L25" t="str">
+        <f>IF(VLOOKUP(D25,型!B:D,3,FALSE)="有","("&amp;E25&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ref="M25" si="19">IF(G25="無"," NOT NULL","")</f>
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" ref="N25" si="20">IF(H25=1," PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" ref="P25" si="21">IF(I25="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="J26" t="str">
         <f>");"</f>
         <v>);</v>
       </c>
-      <c r="P20" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -1907,8 +2258,8 @@
   </sheetData>
   <autoFilter ref="A1:I19" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D19" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>

--- a/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
+++ b/AD010_内部定義/BB030_テーブル設計書/BB030040_株価時系列.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D472EBF-D607-4B29-92C5-266DAB0B855D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159DE54-D754-408A-A014-9244A36E4051}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="6650" windowWidth="14680" windowHeight="8670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15870" yWindow="2470" windowWidth="20470" windowHeight="13920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本情報" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="型" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$I$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">テーブル情報!$A$1:$I$21</definedName>
     <definedName name="論理型">型!$B$2:$B$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="83">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -309,13 +309,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>始値</t>
     <rPh sb="0" eb="2">
       <t>ハジメネ</t>
@@ -351,10 +344,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>volume</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -517,55 +506,37 @@
     <t>日時型</t>
   </si>
   <si>
-    <t>ＭＣＡＤライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ＭＣＡＤシグナル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ＭＣＡＤヒストグラム</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勢力指数</t>
-    <rPh sb="0" eb="4">
-      <t>セイリョクシスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勢力指数１３ＥＭＡ</t>
-    <rPh sb="0" eb="4">
-      <t>セイリョクシスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勢力指数２ＥＭＡ</t>
-    <rPh sb="0" eb="4">
-      <t>セイリョクシスウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mcadl</t>
-  </si>
-  <si>
-    <t>mcads</t>
-  </si>
-  <si>
-    <t>mcadh</t>
-  </si>
-  <si>
-    <t>pi</t>
-  </si>
-  <si>
-    <t>pi2ema</t>
-  </si>
-  <si>
-    <t>pi13ema</t>
+    <t>期間終了日</t>
+    <rPh sb="2" eb="4">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period_start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>period_end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間開始日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>type_of_period_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間の種類ID</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -641,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -649,6 +620,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -932,7 +906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
@@ -985,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>44334</v>
+        <v>44335</v>
       </c>
     </row>
   </sheetData>
@@ -997,9 +971,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D494202A-6D03-44D4-8C0D-2E4A8FF7709D}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -1010,7 +984,7 @@
   <cols>
     <col min="1" max="1" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.58203125" bestFit="1" customWidth="1"/>
@@ -1065,7 +1039,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1">
         <v>19</v>
@@ -1092,7 +1066,7 @@
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M13" si="0">IF(G2="無"," NOT NULL","")</f>
+        <f t="shared" ref="M2:M14" si="0">IF(G2="無"," NOT NULL","")</f>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N2" t="str">
@@ -1106,7 +1080,7 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="5">
-        <f t="shared" ref="A3:A25" si="2">ROW()-1</f>
+        <f t="shared" ref="A3:A21" si="2">ROW()-1</f>
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1151,7 +1125,7 @@
         <v/>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P26" si="3">IF(I3="○"," IDENTITY","")</f>
+        <f t="shared" ref="P3:P22" si="3">IF(I3="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
@@ -1318,7 +1292,7 @@
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>16</v>
@@ -1418,7 +1392,7 @@
         <v>37</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>16</v>
@@ -1517,7 +1491,7 @@
         <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>25</v>
@@ -1565,13 +1539,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5">
         <v>19</v>
@@ -1617,10 +1591,10 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E13" s="1">
         <v>19</v>
@@ -1633,7 +1607,7 @@
       </c>
       <c r="H13" s="1"/>
       <c r="J13" t="str">
-        <f t="shared" ref="J13:J24" si="6">",   "&amp;C13</f>
+        <f t="shared" ref="J13:J21" si="6">",   "&amp;C13</f>
         <v>,   no</v>
       </c>
       <c r="K13" t="str">
@@ -1649,60 +1623,60 @@
         <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ref="N13:N24" si="7">IF(H13=1," PRIMARY KEY","")</f>
+        <f t="shared" ref="N13:N21" si="7">IF(H13=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P13" t="str">
-        <f t="shared" ref="P13" si="8">IF(I13="○"," IDENTITY","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="5">
+        <f t="shared" ref="P13:P14" si="8">IF(I13="○"," IDENTITY","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="9" customFormat="1">
+      <c r="A14" s="10">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>16</v>
+      <c r="E14" s="10">
+        <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="J14" t="str">
-        <f t="shared" si="6"/>
-        <v>,   date</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="H14" s="10"/>
+      <c r="J14" s="9" t="str">
+        <f t="shared" ref="J14" si="9">",   "&amp;C14</f>
+        <v>,   type_of_period_id</v>
+      </c>
+      <c r="K14" s="9" t="str">
         <f>" "&amp;VLOOKUP(D14,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DATE</v>
-      </c>
-      <c r="L14" t="str">
+        <v xml:space="preserve"> BIGINT</v>
+      </c>
+      <c r="L14" s="9" t="str">
         <f>IF(VLOOKUP(D14,型!B:D,3,FALSE)="有","("&amp;E14&amp;")","")</f>
         <v/>
       </c>
-      <c r="M14" t="str">
-        <f t="shared" ref="M14:M24" si="9">IF(G14="無"," NOT NULL","")</f>
+      <c r="M14" s="9" t="str">
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> NOT NULL</v>
       </c>
-      <c r="N14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P14" t="str">
-        <f t="shared" si="3"/>
+      <c r="N14" s="9" t="str">
+        <f t="shared" ref="N14" si="10">IF(H14=1," PRIMARY KEY","")</f>
+        <v/>
+      </c>
+      <c r="P14" s="9" t="str">
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -1711,40 +1685,40 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>58</v>
+      <c r="B15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H15" s="1"/>
       <c r="J15" t="str">
         <f t="shared" si="6"/>
-        <v>,   op</v>
+        <v>,   period_start_date</v>
       </c>
       <c r="K15" t="str">
         <f>" "&amp;VLOOKUP(D15,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
+        <v xml:space="preserve"> DATE</v>
       </c>
       <c r="L15" t="str">
         <f>IF(VLOOKUP(D15,型!B:D,3,FALSE)="有","("&amp;E15&amp;")","")</f>
         <v/>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" ref="M15:M21" si="11">IF(G15="無"," NOT NULL","")</f>
+        <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N15" t="str">
         <f t="shared" si="7"/>
@@ -1756,51 +1730,51 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="5">
+      <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>58</v>
+      <c r="B16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="1"/>
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="7"/>
       <c r="J16" t="str">
-        <f t="shared" si="6"/>
-        <v>,   hp</v>
+        <f t="shared" ref="J16" si="12">",   "&amp;C16</f>
+        <v>,   period_end_date</v>
       </c>
       <c r="K16" t="str">
         <f>" "&amp;VLOOKUP(D16,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
+        <v xml:space="preserve"> DATE</v>
       </c>
       <c r="L16" t="str">
         <f>IF(VLOOKUP(D16,型!B:D,3,FALSE)="有","("&amp;E16&amp;")","")</f>
         <v/>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="9"/>
-        <v/>
+        <f t="shared" ref="M16" si="13">IF(G16="無"," NOT NULL","")</f>
+        <v xml:space="preserve"> NOT NULL</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="N16" si="14">IF(H16=1," PRIMARY KEY","")</f>
         <v/>
       </c>
       <c r="P16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="P16" si="15">IF(I16="○"," IDENTITY","")</f>
         <v/>
       </c>
     </row>
@@ -1810,16 +1784,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>16</v>
@@ -1830,7 +1804,7 @@
       <c r="H17" s="1"/>
       <c r="J17" t="str">
         <f t="shared" si="6"/>
-        <v>,   lp</v>
+        <v>,   op</v>
       </c>
       <c r="K17" t="str">
         <f>" "&amp;VLOOKUP(D17,型!B:C,2,FALSE)</f>
@@ -1841,7 +1815,7 @@
         <v/>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N17" t="str">
@@ -1859,16 +1833,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>16</v>
@@ -1879,7 +1853,7 @@
       <c r="H18" s="1"/>
       <c r="J18" t="str">
         <f t="shared" si="6"/>
-        <v>,   cp</v>
+        <v>,   hp</v>
       </c>
       <c r="K18" t="str">
         <f>" "&amp;VLOOKUP(D18,型!B:C,2,FALSE)</f>
@@ -1890,7 +1864,7 @@
         <v/>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N18" t="str">
@@ -1908,16 +1882,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="1">
-        <v>19</v>
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>16</v>
@@ -1928,18 +1902,18 @@
       <c r="H19" s="1"/>
       <c r="J19" t="str">
         <f t="shared" si="6"/>
-        <v>,   volume</v>
+        <v>,   lp</v>
       </c>
       <c r="K19" t="str">
         <f>" "&amp;VLOOKUP(D19,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> BIGINT</v>
+        <v xml:space="preserve"> DOUBLE PRECISION</v>
       </c>
       <c r="L19" t="str">
         <f>IF(VLOOKUP(D19,型!B:D,3,FALSE)="有","("&amp;E19&amp;")","")</f>
         <v/>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N19" t="str">
@@ -1956,28 +1930,28 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>58</v>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="5"/>
+      <c r="H20" s="1"/>
       <c r="J20" t="str">
-        <f t="shared" ref="J20:J21" si="10">",   "&amp;C20</f>
-        <v>,   mcadl</v>
+        <f t="shared" si="6"/>
+        <v>,   cp</v>
       </c>
       <c r="K20" t="str">
         <f>" "&amp;VLOOKUP(D20,型!B:C,2,FALSE)</f>
@@ -1988,15 +1962,15 @@
         <v/>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ref="M20:M21" si="11">IF(G20="無"," NOT NULL","")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N20" t="str">
-        <f t="shared" ref="N20:N21" si="12">IF(H20=1," PRIMARY KEY","")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P20" t="str">
-        <f t="shared" ref="P20:P21" si="13">IF(I20="○"," IDENTITY","")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2005,32 +1979,32 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>58</v>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="1">
+        <v>19</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="G21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="5"/>
+      <c r="H21" s="1"/>
       <c r="J21" t="str">
-        <f t="shared" si="10"/>
-        <v>,   mcads</v>
+        <f t="shared" si="6"/>
+        <v>,   volume</v>
       </c>
       <c r="K21" t="str">
         <f>" "&amp;VLOOKUP(D21,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
+        <v xml:space="preserve"> BIGINT</v>
       </c>
       <c r="L21" t="str">
         <f>IF(VLOOKUP(D21,型!B:D,3,FALSE)="有","("&amp;E21&amp;")","")</f>
@@ -2041,225 +2015,29 @@
         <v/>
       </c>
       <c r="N21" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P21" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="5">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" s="5"/>
       <c r="J22" t="str">
-        <f t="shared" si="6"/>
-        <v>,   mcadh</v>
-      </c>
-      <c r="K22" t="str">
-        <f>" "&amp;VLOOKUP(D22,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
-      </c>
-      <c r="L22" t="str">
-        <f>IF(VLOOKUP(D22,型!B:D,3,FALSE)="有","("&amp;E22&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N22" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f>");"</f>
+        <v>);</v>
       </c>
       <c r="P22" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="5">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="5"/>
-      <c r="J23" t="str">
-        <f t="shared" ref="J23" si="14">",   "&amp;C23</f>
-        <v>,   pi</v>
-      </c>
-      <c r="K23" t="str">
-        <f>" "&amp;VLOOKUP(D23,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
-      </c>
-      <c r="L23" t="str">
-        <f>IF(VLOOKUP(D23,型!B:D,3,FALSE)="有","("&amp;E23&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" ref="M23" si="15">IF(G23="無"," NOT NULL","")</f>
-        <v/>
-      </c>
-      <c r="N23" t="str">
-        <f t="shared" ref="N23" si="16">IF(H23=1," PRIMARY KEY","")</f>
-        <v/>
-      </c>
-      <c r="P23" t="str">
-        <f t="shared" ref="P23" si="17">IF(I23="○"," IDENTITY","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="5">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="5"/>
-      <c r="J24" t="str">
-        <f t="shared" si="6"/>
-        <v>,   pi2ema</v>
-      </c>
-      <c r="K24" t="str">
-        <f>" "&amp;VLOOKUP(D24,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
-      </c>
-      <c r="L24" t="str">
-        <f>IF(VLOOKUP(D24,型!B:D,3,FALSE)="有","("&amp;E24&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N24" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P24" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="5">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="5"/>
-      <c r="J25" t="str">
-        <f t="shared" ref="J25" si="18">",   "&amp;C25</f>
-        <v>,   pi13ema</v>
-      </c>
-      <c r="K25" t="str">
-        <f>" "&amp;VLOOKUP(D25,型!B:C,2,FALSE)</f>
-        <v xml:space="preserve"> DOUBLE PRECISION</v>
-      </c>
-      <c r="L25" t="str">
-        <f>IF(VLOOKUP(D25,型!B:D,3,FALSE)="有","("&amp;E25&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" ref="M25" si="19">IF(G25="無"," NOT NULL","")</f>
-        <v/>
-      </c>
-      <c r="N25" t="str">
-        <f t="shared" ref="N25" si="20">IF(H25=1," PRIMARY KEY","")</f>
-        <v/>
-      </c>
-      <c r="P25" t="str">
-        <f t="shared" ref="P25" si="21">IF(I25="○"," IDENTITY","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="J26" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-      <c r="P26" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I19" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
+  <autoFilter ref="A1:I21" xr:uid="{0AF5AC3B-97BD-4F04-9D1A-5C920B5FF9BB}"/>
   <phoneticPr fontId="1"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D21" xr:uid="{32AF53E9-0EE8-4F91-B790-4502B36A52C4}">
       <formula1>論理型</formula1>
     </dataValidation>
   </dataValidations>
@@ -2292,13 +2070,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2307,10 +2085,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>17</v>
@@ -2322,10 +2100,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>17</v>
@@ -2340,7 +2118,7 @@
         <v>20</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>17</v>
@@ -2352,10 +2130,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>17</v>
@@ -2370,7 +2148,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>29</v>
@@ -2382,10 +2160,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>17</v>
@@ -2397,10 +2175,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>17</v>
@@ -2412,10 +2190,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>17</v>
@@ -2427,10 +2205,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>17</v>
